--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E7FB3-DD8A-46C0-BABA-82724DD66482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBD34E-9C5E-48F9-BD03-9BC360973386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="8" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="3" activeTab="9" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId7"/>
     <sheet name="FlowbackRates" sheetId="12" r:id="rId8"/>
     <sheet name="ProductionRates" sheetId="34" r:id="rId9"/>
+    <sheet name="InitialDisposalCapacity" sheetId="36" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -303,6 +304,9 @@
   </si>
   <si>
     <t>List of all Production Tank Identifiers [-]</t>
+  </si>
+  <si>
+    <t>Table of Initial Disposal Capacity  [bbl/day]</t>
   </si>
 </sst>
 </file>
@@ -1632,6 +1636,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AFB15B-B1C8-461A-BF7D-18135C4BCB65}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="22">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A76A8-5CE6-4878-A6D7-FB5DF8BDAFB4}">
   <dimension ref="A1:R16"/>
@@ -4725,7 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BA92-5244-487C-A2DC-E363C6C267C1}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBD34E-9C5E-48F9-BD03-9BC360973386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F2FFB8-27DC-4333-ACA0-2C8A9443A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="3" activeTab="9" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="5" activeTab="10" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="FlowbackRates" sheetId="12" r:id="rId8"/>
     <sheet name="ProductionRates" sheetId="34" r:id="rId9"/>
     <sheet name="InitialDisposalCapacity" sheetId="36" r:id="rId10"/>
+    <sheet name="TwoIndexColumnParam" sheetId="37" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1640,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AFB15B-B1C8-461A-BF7D-18135C4BCB65}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1695,6 +1696,91 @@
         <v>28</v>
       </c>
       <c r="B7" s="22">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364E144-4CD2-44C5-A585-25BE71A80703}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22">
         <v>5000</v>
       </c>
     </row>
@@ -2191,7 +2277,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -3399,7 +3485,7 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>

--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F2FFB8-27DC-4333-ACA0-2C8A9443A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C398DE0-B5E2-4D85-A58C-268CB4A366CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="5" activeTab="10" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="8" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -1710,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364E144-4CD2-44C5-A585-25BE71A80703}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -4883,8 +4883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BA92-5244-487C-A2DC-E363C6C267C1}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>

--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C398DE0-B5E2-4D85-A58C-268CB4A366CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A7432-E439-4718-AF9E-8F0A7CD1F91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="8" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="4" activeTab="6" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="SWDSites" sheetId="4" r:id="rId4"/>
     <sheet name="ProductionTanks" sheetId="35" r:id="rId5"/>
     <sheet name="DriveTimes" sheetId="7" r:id="rId6"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId7"/>
-    <sheet name="FlowbackRates" sheetId="12" r:id="rId8"/>
-    <sheet name="ProductionRates" sheetId="34" r:id="rId9"/>
-    <sheet name="InitialDisposalCapacity" sheetId="36" r:id="rId10"/>
-    <sheet name="TwoIndexColumnParam" sheetId="37" r:id="rId11"/>
+    <sheet name="Coordinates" sheetId="38" r:id="rId7"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId8"/>
+    <sheet name="FlowbackRates" sheetId="12" r:id="rId9"/>
+    <sheet name="ProductionRates" sheetId="34" r:id="rId10"/>
+    <sheet name="InitialDisposalCapacity" sheetId="36" r:id="rId11"/>
+    <sheet name="TwoIndexColumnParam" sheetId="37" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -308,12 +309,24 @@
   </si>
   <si>
     <t>Table of Initial Disposal Capacity  [bbl/day]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinates </t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -716,6 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1638,11 +1652,380 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BA92-5244-487C-A2DC-E363C6C267C1}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="9.26171875" style="18"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1058</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1029</v>
+      </c>
+      <c r="E3" s="42">
+        <v>999</v>
+      </c>
+      <c r="F3" s="42">
+        <v>998</v>
+      </c>
+      <c r="G3" s="20">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1058</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1029</v>
+      </c>
+      <c r="E4" s="42">
+        <v>999</v>
+      </c>
+      <c r="F4" s="42">
+        <v>998</v>
+      </c>
+      <c r="G4" s="20">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="42">
+        <v>466</v>
+      </c>
+      <c r="D5" s="42">
+        <v>460</v>
+      </c>
+      <c r="E5" s="42">
+        <v>458</v>
+      </c>
+      <c r="F5" s="42">
+        <v>457</v>
+      </c>
+      <c r="G5" s="20">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="42">
+        <v>466</v>
+      </c>
+      <c r="D6" s="42">
+        <v>460</v>
+      </c>
+      <c r="E6" s="42">
+        <v>458</v>
+      </c>
+      <c r="F6" s="42">
+        <v>457</v>
+      </c>
+      <c r="G6" s="20">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="42">
+        <v>466</v>
+      </c>
+      <c r="D7" s="42">
+        <v>460</v>
+      </c>
+      <c r="E7" s="42">
+        <v>458</v>
+      </c>
+      <c r="F7" s="42">
+        <v>457</v>
+      </c>
+      <c r="G7" s="20">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="42">
+        <v>200</v>
+      </c>
+      <c r="D8" s="42">
+        <v>199</v>
+      </c>
+      <c r="E8" s="42">
+        <v>198</v>
+      </c>
+      <c r="F8" s="42">
+        <v>196</v>
+      </c>
+      <c r="G8" s="20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="42">
+        <v>200</v>
+      </c>
+      <c r="D9" s="42">
+        <v>199</v>
+      </c>
+      <c r="E9" s="42">
+        <v>198</v>
+      </c>
+      <c r="F9" s="42">
+        <v>196</v>
+      </c>
+      <c r="G9" s="20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="42">
+        <v>200</v>
+      </c>
+      <c r="D10" s="42">
+        <v>199</v>
+      </c>
+      <c r="E10" s="42">
+        <v>198</v>
+      </c>
+      <c r="F10" s="42">
+        <v>196</v>
+      </c>
+      <c r="G10" s="20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="42">
+        <v>200</v>
+      </c>
+      <c r="D11" s="42">
+        <v>199</v>
+      </c>
+      <c r="E11" s="42">
+        <v>198</v>
+      </c>
+      <c r="F11" s="42">
+        <v>196</v>
+      </c>
+      <c r="G11" s="20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="42">
+        <v>331</v>
+      </c>
+      <c r="D12" s="42">
+        <v>330</v>
+      </c>
+      <c r="E12" s="42">
+        <v>330</v>
+      </c>
+      <c r="F12" s="42">
+        <v>329</v>
+      </c>
+      <c r="G12" s="20">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="42">
+        <v>331</v>
+      </c>
+      <c r="D13" s="42">
+        <v>330</v>
+      </c>
+      <c r="E13" s="42">
+        <v>330</v>
+      </c>
+      <c r="F13" s="42">
+        <v>329</v>
+      </c>
+      <c r="G13" s="20">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="42">
+        <v>331</v>
+      </c>
+      <c r="D14" s="42">
+        <v>330</v>
+      </c>
+      <c r="E14" s="42">
+        <v>330</v>
+      </c>
+      <c r="F14" s="42">
+        <v>329</v>
+      </c>
+      <c r="G14" s="20">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="42">
+        <v>895</v>
+      </c>
+      <c r="D15" s="42">
+        <v>888</v>
+      </c>
+      <c r="E15" s="42">
+        <v>887</v>
+      </c>
+      <c r="F15" s="42">
+        <v>885</v>
+      </c>
+      <c r="G15" s="20">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="21">
+        <v>895</v>
+      </c>
+      <c r="D16" s="21">
+        <v>888</v>
+      </c>
+      <c r="E16" s="21">
+        <v>887</v>
+      </c>
+      <c r="F16" s="21">
+        <v>885</v>
+      </c>
+      <c r="G16" s="22">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AFB15B-B1C8-461A-BF7D-18135C4BCB65}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1706,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364E144-4CD2-44C5-A585-25BE71A80703}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2574,7 +2957,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -3481,6 +3864,300 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BF3884-09AC-4C78-8EAF-AA69EB452744}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>47.604399999999998</v>
+      </c>
+      <c r="C3">
+        <v>-122.33450000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="49">
+        <v>47.678551400158099</v>
+      </c>
+      <c r="C4" s="49">
+        <v>-122.38514810411333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="49">
+        <v>47.671605016754775</v>
+      </c>
+      <c r="C5" s="49">
+        <v>-122.31941699831951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="49">
+        <v>47.51373173275276</v>
+      </c>
+      <c r="C6" s="49">
+        <v>-122.37256636119979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="49">
+        <v>47.598210949478798</v>
+      </c>
+      <c r="C7" s="49">
+        <v>-122.30833430642372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="49">
+        <v>47.545013073705562</v>
+      </c>
+      <c r="C8" s="49">
+        <v>-122.27578180785954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="49">
+        <v>47.531980739789113</v>
+      </c>
+      <c r="C9" s="49">
+        <v>-122.25392487570376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="49">
+        <v>47.56473303789118</v>
+      </c>
+      <c r="C10" s="49">
+        <v>-122.23615203748196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="49">
+        <v>47.529792632940953</v>
+      </c>
+      <c r="C11" s="49">
+        <v>-122.38490267916536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="49">
+        <v>47.631685383062539</v>
+      </c>
+      <c r="C12" s="49">
+        <v>-122.43178036972577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="49">
+        <v>47.662203296426647</v>
+      </c>
+      <c r="C13" s="49">
+        <v>-122.3748467760494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="49">
+        <v>47.650576946946856</v>
+      </c>
+      <c r="C14" s="49">
+        <v>-122.33832847843796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="49">
+        <v>47.655834380297506</v>
+      </c>
+      <c r="C15" s="49">
+        <v>-122.24953147273567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="49">
+        <v>47.680787091717839</v>
+      </c>
+      <c r="C16" s="49">
+        <v>-122.27548462416144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="49">
+        <v>47.53282219470006</v>
+      </c>
+      <c r="C17" s="49">
+        <v>-122.41679135415569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="49">
+        <v>47.623906510821413</v>
+      </c>
+      <c r="C18" s="49">
+        <v>-122.36685609717435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="49">
+        <v>47.544942555956496</v>
+      </c>
+      <c r="C19" s="49">
+        <v>-122.39902392056128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="49">
+        <v>47.546281351253072</v>
+      </c>
+      <c r="C20" s="49">
+        <v>-122.2875801822827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="49">
+        <v>47.599229667613891</v>
+      </c>
+      <c r="C21" s="49">
+        <v>-122.2901468966058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="49">
+        <v>47.632141396558332</v>
+      </c>
+      <c r="C22" s="49">
+        <v>-122.29739693081503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="49">
+        <v>47.606697845554585</v>
+      </c>
+      <c r="C23" s="49">
+        <v>-122.39872536852423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="49">
+        <v>47.616415359392079</v>
+      </c>
+      <c r="C24" s="49">
+        <v>-122.26887716808142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="49">
+        <v>47.600371580577168</v>
+      </c>
+      <c r="C25" s="49">
+        <v>-122.27286360239516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="49">
+        <v>47.534616037389881</v>
+      </c>
+      <c r="C26" s="49">
+        <v>-122.27032458981431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
@@ -4146,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AB1186-A1E7-4C17-BA8E-EB0106BA7D22}">
   <dimension ref="A1:BA22"/>
   <sheetViews>
@@ -4877,373 +5554,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BA92-5244-487C-A2DC-E363C6C267C1}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="2" width="9.26171875" style="18"/>
-    <col min="3" max="16384" width="9.26171875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1058</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1029</v>
-      </c>
-      <c r="E3" s="42">
-        <v>999</v>
-      </c>
-      <c r="F3" s="42">
-        <v>998</v>
-      </c>
-      <c r="G3" s="20">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="42">
-        <v>1058</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1029</v>
-      </c>
-      <c r="E4" s="42">
-        <v>999</v>
-      </c>
-      <c r="F4" s="42">
-        <v>998</v>
-      </c>
-      <c r="G4" s="20">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="42">
-        <v>466</v>
-      </c>
-      <c r="D5" s="42">
-        <v>460</v>
-      </c>
-      <c r="E5" s="42">
-        <v>458</v>
-      </c>
-      <c r="F5" s="42">
-        <v>457</v>
-      </c>
-      <c r="G5" s="20">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="42">
-        <v>466</v>
-      </c>
-      <c r="D6" s="42">
-        <v>460</v>
-      </c>
-      <c r="E6" s="42">
-        <v>458</v>
-      </c>
-      <c r="F6" s="42">
-        <v>457</v>
-      </c>
-      <c r="G6" s="20">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="42">
-        <v>466</v>
-      </c>
-      <c r="D7" s="42">
-        <v>460</v>
-      </c>
-      <c r="E7" s="42">
-        <v>458</v>
-      </c>
-      <c r="F7" s="42">
-        <v>457</v>
-      </c>
-      <c r="G7" s="20">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="42">
-        <v>200</v>
-      </c>
-      <c r="D8" s="42">
-        <v>199</v>
-      </c>
-      <c r="E8" s="42">
-        <v>198</v>
-      </c>
-      <c r="F8" s="42">
-        <v>196</v>
-      </c>
-      <c r="G8" s="20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="42">
-        <v>200</v>
-      </c>
-      <c r="D9" s="42">
-        <v>199</v>
-      </c>
-      <c r="E9" s="42">
-        <v>198</v>
-      </c>
-      <c r="F9" s="42">
-        <v>196</v>
-      </c>
-      <c r="G9" s="20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="42">
-        <v>200</v>
-      </c>
-      <c r="D10" s="42">
-        <v>199</v>
-      </c>
-      <c r="E10" s="42">
-        <v>198</v>
-      </c>
-      <c r="F10" s="42">
-        <v>196</v>
-      </c>
-      <c r="G10" s="20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="42">
-        <v>200</v>
-      </c>
-      <c r="D11" s="42">
-        <v>199</v>
-      </c>
-      <c r="E11" s="42">
-        <v>198</v>
-      </c>
-      <c r="F11" s="42">
-        <v>196</v>
-      </c>
-      <c r="G11" s="20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="42">
-        <v>331</v>
-      </c>
-      <c r="D12" s="42">
-        <v>330</v>
-      </c>
-      <c r="E12" s="42">
-        <v>330</v>
-      </c>
-      <c r="F12" s="42">
-        <v>329</v>
-      </c>
-      <c r="G12" s="20">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="42">
-        <v>331</v>
-      </c>
-      <c r="D13" s="42">
-        <v>330</v>
-      </c>
-      <c r="E13" s="42">
-        <v>330</v>
-      </c>
-      <c r="F13" s="42">
-        <v>329</v>
-      </c>
-      <c r="G13" s="20">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="42">
-        <v>331</v>
-      </c>
-      <c r="D14" s="42">
-        <v>330</v>
-      </c>
-      <c r="E14" s="42">
-        <v>330</v>
-      </c>
-      <c r="F14" s="42">
-        <v>329</v>
-      </c>
-      <c r="G14" s="20">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="42">
-        <v>895</v>
-      </c>
-      <c r="D15" s="42">
-        <v>888</v>
-      </c>
-      <c r="E15" s="42">
-        <v>887</v>
-      </c>
-      <c r="F15" s="42">
-        <v>885</v>
-      </c>
-      <c r="G15" s="20">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="21">
-        <v>895</v>
-      </c>
-      <c r="D16" s="21">
-        <v>888</v>
-      </c>
-      <c r="E16" s="21">
-        <v>887</v>
-      </c>
-      <c r="F16" s="21">
-        <v>885</v>
-      </c>
-      <c r="G16" s="22">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="47"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A7432-E439-4718-AF9E-8F0A7CD1F91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02562E84-8559-4CE0-AC85-5D3F92ACE13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="4" activeTab="6" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -325,7 +325,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3868,10 +3868,14 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="16.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
@@ -3892,10 +3896,10 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="49">
         <v>47.604399999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="49">
         <v>-122.33450000000001</v>
       </c>
     </row>

--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02562E84-8559-4CE0-AC85-5D3F92ACE13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D8EBA-C5B1-4A2B-8109-EB85DD52EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="4" activeTab="6" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="771" firstSheet="3" activeTab="11" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>CompletionsPads</t>
+  </si>
+  <si>
+    <t>ProductionPads</t>
+  </si>
+  <si>
+    <t>ProductionTanks</t>
+  </si>
+  <si>
+    <t>SWDSites</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -325,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -641,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,7 +664,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -729,7 +743,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1109,525 +1123,525 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="28"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="28"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="28"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="28"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="28"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="28"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="28"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="28"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="28"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="28"/>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="28"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="28"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="28"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="28"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="28"/>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="28"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="28"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="M31" s="37" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="M31" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="28"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="28"/>
-      <c r="C34" s="33" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="28"/>
-      <c r="C35" s="33" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="28"/>
-      <c r="C36" s="33" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1656,363 +1670,368 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.26171875" style="18"/>
+    <col min="1" max="1" width="16.20703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.20703125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="16">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>1058</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>1029</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>999</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>998</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>1058</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>1029</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>999</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>998</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>466</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>460</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>458</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>457</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>466</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>460</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>458</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>457</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>466</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>460</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>458</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>457</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>200</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>199</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>198</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>196</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>200</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>199</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>198</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>196</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>200</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>199</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>198</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>196</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>200</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>199</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>198</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>196</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>331</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>330</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>330</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>329</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>331</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>330</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>330</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>329</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>331</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>330</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>330</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>329</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>895</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>888</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>887</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>885</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>895</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>888</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>887</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>885</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>883</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="47"/>
+      <c r="G21" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,12 +2044,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="1" width="9.9453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -2038,47 +2058,51 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="2" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>5000</v>
       </c>
     </row>
@@ -2093,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364E144-4CD2-44C5-A585-25BE71A80703}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2107,63 +2131,69 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="2" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>5000</v>
       </c>
     </row>
@@ -2178,7 +2208,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2199,7 +2229,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
@@ -2220,7 +2250,7 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
@@ -2241,11 +2271,11 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2262,7 +2292,7 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -2275,15 +2305,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -2304,7 +2334,7 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -2325,7 +2355,7 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -2346,7 +2376,7 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -2367,37 +2397,37 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2435,12 +2465,12 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2"/>
@@ -2463,7 +2493,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
@@ -2486,12 +2516,12 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2520,9 +2550,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2660,7 +2690,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2680,12 +2710,12 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2"/>
@@ -2706,7 +2736,7 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
@@ -2727,12 +2757,12 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2748,7 +2778,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2"/>
@@ -2762,9 +2792,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
@@ -2852,7 +2882,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2873,76 +2903,76 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2957,7 +2987,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2971,721 +3001,723 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="2"/>
@@ -3724,7 +3756,7 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3750,9 +3782,9 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3867,12 +3899,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BF3884-09AC-4C78-8EAF-AA69EB452744}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="14.9453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3884,275 +3917,277 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>47.604399999999998</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>-122.33450000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>47.678551400158099</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>-122.38514810411333</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>47.671605016754775</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>-122.31941699831951</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>47.51373173275276</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>-122.37256636119979</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>47.598210949478798</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>-122.30833430642372</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>47.545013073705562</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>-122.27578180785954</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>47.531980739789113</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>-122.25392487570376</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>47.56473303789118</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>-122.23615203748196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>47.529792632940953</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>-122.38490267916536</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>47.631685383062539</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <v>-122.43178036972577</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>47.662203296426647</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <v>-122.3748467760494</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <v>47.650576946946856</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <v>-122.33832847843796</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="48">
         <v>47.655834380297506</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>-122.24953147273567</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <v>47.680787091717839</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <v>-122.27548462416144</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="48">
         <v>47.53282219470006</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <v>-122.41679135415569</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <v>47.623906510821413</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <v>-122.36685609717435</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <v>47.544942555956496</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>-122.39902392056128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>47.546281351253072</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>-122.2875801822827</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <v>47.599229667613891</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>-122.2901468966058</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>47.632141396558332</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <v>-122.29739693081503</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>47.606697845554585</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="48">
         <v>-122.39872536852423</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>47.616415359392079</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>-122.26887716808142</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>47.600371580577168</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>-122.27286360239516</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <v>47.534616037389881</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>-122.27032458981431</v>
       </c>
     </row>
@@ -4166,12 +4201,13 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="1" width="18.9453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -4179,476 +4215,478 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+    <row r="2" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>7</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>8</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>9</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>10</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>11</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>12</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>13</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>14</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <v>15</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="15">
         <v>16</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>18</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="15">
         <v>19</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="15">
         <v>20</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="15">
         <v>21</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="15">
         <v>22</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="15">
         <v>23</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="15">
         <v>24</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="15">
         <v>25</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="15">
         <v>26</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="15">
         <v>27</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AC2" s="15">
         <v>28</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="15">
         <v>29</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="15">
         <v>30</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AF2" s="15">
         <v>31</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="15">
         <v>32</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AH2" s="15">
         <v>33</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AI2" s="15">
         <v>34</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AJ2" s="15">
         <v>35</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>36</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AL2" s="15">
         <v>37</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="15">
         <v>38</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>39</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="15">
         <v>40</v>
       </c>
-      <c r="AP2" s="16">
+      <c r="AP2" s="15">
         <v>41</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AQ2" s="15">
         <v>42</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AR2" s="15">
         <v>43</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AS2" s="15">
         <v>44</v>
       </c>
-      <c r="AT2" s="16">
+      <c r="AT2" s="15">
         <v>45</v>
       </c>
-      <c r="AU2" s="16">
+      <c r="AU2" s="15">
         <v>46</v>
       </c>
-      <c r="AV2" s="16">
+      <c r="AV2" s="15">
         <v>47</v>
       </c>
-      <c r="AW2" s="16">
+      <c r="AW2" s="15">
         <v>48</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AX2" s="15">
         <v>49</v>
       </c>
-      <c r="AY2" s="16">
+      <c r="AY2" s="15">
         <v>50</v>
       </c>
-      <c r="AZ2" s="16">
+      <c r="AZ2" s="15">
         <v>51</v>
       </c>
-      <c r="BA2" s="17">
+      <c r="BA2" s="16">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
         <v>110000</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>245000</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>245000</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>245000</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>245000</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>245000</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>245000</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>245000</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>80000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="19"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18">
         <v>75000</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="18">
         <v>245000</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="18">
         <v>245000</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="18">
         <v>245000</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="18">
         <v>245000</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="18">
         <v>245000</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="18">
         <v>245000</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="18">
         <v>245000</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="18">
         <v>245000</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="18">
         <v>245000</v>
       </c>
-      <c r="BA4" s="20">
+      <c r="BA4" s="19">
         <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18">
         <v>194000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>294000</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>294000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>294000</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="18">
         <v>294000</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>294000</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="18">
         <v>294000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>294000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>294000</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <v>294000</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="18">
         <v>50000</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="20"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="19"/>
     </row>
     <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20">
         <v>233000</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="20">
         <v>320000</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="20">
         <v>320000</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="20">
         <v>320000</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="20">
         <v>320000</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="20">
         <v>320000</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="20">
         <v>320000</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="20">
         <v>320000</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="20">
         <v>320000</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="20">
         <v>320000</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="20">
         <v>195000</v>
       </c>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="22"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="21"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
@@ -4691,7 +4729,7 @@
     <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4719,9 +4757,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -4832,12 +4870,13 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="1" width="18.47265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -4846,166 +4885,168 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12">
+      <c r="A2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>11</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>12</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>14</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>16</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>18</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>19</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>20</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>21</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>22</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>23</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>24</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>25</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <v>26</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <v>27</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <v>28</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <v>29</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <v>30</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>31</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="7">
         <v>32</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="7">
         <v>33</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="7">
         <v>34</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="7">
         <v>35</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="7">
         <v>36</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="7">
         <v>37</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="7">
         <v>38</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="7">
         <v>39</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AO2" s="7">
         <v>40</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="7">
         <v>41</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="7">
         <v>42</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="7">
         <v>43</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="7">
         <v>44</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="7">
         <v>45</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="7">
         <v>46</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="7">
         <v>47</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="7">
         <v>48</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="7">
         <v>49</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AY2" s="7">
         <v>50</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="AZ2" s="7">
         <v>51</v>
       </c>
-      <c r="BA2" s="9">
+      <c r="BA2" s="8">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
@@ -5078,7 +5119,7 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3"/>
@@ -5135,7 +5176,7 @@
       <c r="BA4" s="4"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3"/>
@@ -5198,7 +5239,7 @@
       <c r="BA5" s="4"/>
     </row>
     <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5"/>
@@ -5305,7 +5346,7 @@
     <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -5335,9 +5376,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>

--- a/pareto/case_studies/toy_case_study.xlsx
+++ b/pareto/case_studies/toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C398DE0-B5E2-4D85-A58C-268CB4A366CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4C398DE0-B5E2-4D85-A58C-268CB4A366CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C7A16A4-4EA8-4266-811B-BF39859BF076}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="8" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="3" activeTab="10" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>Table of Initial Disposal Capacity  [bbl/day]</t>
+  </si>
+  <si>
+    <t>NODES</t>
+  </si>
+  <si>
+    <t>CompletionsPads</t>
+  </si>
+  <si>
+    <t>ProductionTanks</t>
+  </si>
+  <si>
+    <t>SWDSites</t>
+  </si>
+  <si>
+    <t>VALUE</t>
   </si>
 </sst>
 </file>
@@ -628,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -636,12 +651,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,6 +725,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1086,534 +1100,534 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.26171875" customWidth="1"/>
-    <col min="10" max="10" width="4.41796875" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="28"/>
-      <c r="C5" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="28"/>
-      <c r="C7" s="30" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="28"/>
-      <c r="C8" s="30" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="28"/>
-      <c r="C13" s="30" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="28"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="28"/>
-      <c r="C15" s="30" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="28"/>
-      <c r="C16" s="30" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="28"/>
-      <c r="C18" s="30" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="28"/>
-      <c r="C21" s="32" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="28"/>
-      <c r="C23" s="33" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="28"/>
-      <c r="C24" s="33" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="33" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="28"/>
-      <c r="C26" s="33" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="28"/>
-      <c r="C27" s="33" t="s">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="28"/>
-      <c r="C28" s="33" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="28"/>
-      <c r="C29" s="33" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="28"/>
-      <c r="C30" s="33" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="28"/>
-      <c r="C31" s="33" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="M31" s="37" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="M31" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="28"/>
-      <c r="C33" s="33" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="28"/>
-      <c r="C34" s="33" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="28"/>
-      <c r="C35" s="33" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="28"/>
-      <c r="C36" s="33" t="s">
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
-    </row>
-    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1642,60 +1656,64 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="2" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="18">
         <v>5000</v>
       </c>
     </row>
@@ -1710,77 +1728,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364E144-4CD2-44C5-A585-25BE71A80703}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="2" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>5000</v>
       </c>
     </row>
@@ -1798,25 +1822,25 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.26171875" style="1"/>
-    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.26171875" style="1"/>
-    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="2" width="9.21875" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.21875" style="1"/>
+    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
@@ -1836,8 +1860,8 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
@@ -1857,12 +1881,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1878,8 +1902,8 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1892,15 +1916,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -1920,8 +1944,8 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -1941,8 +1965,8 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -1962,8 +1986,8 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -1983,38 +2007,38 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2033,31 +2057,31 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.26171875" style="1"/>
-    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.21875" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.26171875" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26171875" style="1"/>
+    <col min="6" max="13" width="9.21875" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2"/>
@@ -2079,8 +2103,8 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
@@ -2102,13 +2126,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2125,7 +2149,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2137,15 +2161,15 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2165,7 +2189,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2185,7 +2209,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2205,7 +2229,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2225,7 +2249,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2245,7 +2269,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2280,29 +2304,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.26171875" style="1"/>
-    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.26171875" style="1"/>
-    <col min="15" max="15" width="12.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="3" width="9.21875" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.21875" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2"/>
@@ -2322,8 +2346,8 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
@@ -2343,13 +2367,13 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2364,8 +2388,8 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2"/>
@@ -2379,13 +2403,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2403,7 +2427,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2421,7 +2445,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2439,7 +2463,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2472,94 +2496,94 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.26171875" style="1"/>
-    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.26171875" style="1"/>
-    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="2" width="9.21875" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.21875" style="1"/>
+    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2574,737 +2598,739 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3321,7 +3347,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3338,10 +3364,10 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3355,7 +3381,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3367,12 +3393,12 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3389,7 +3415,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3406,7 +3432,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3423,7 +3449,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3440,7 +3466,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3457,7 +3483,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3488,488 +3514,490 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+    <row r="2" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="12">
         <v>7</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>9</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="12">
         <v>10</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="12">
         <v>11</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="12">
         <v>12</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="12">
         <v>13</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="12">
         <v>14</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="12">
         <v>15</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="12">
         <v>16</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="12">
         <v>17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="12">
         <v>18</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="12">
         <v>19</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="12">
         <v>20</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="12">
         <v>21</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="12">
         <v>22</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="12">
         <v>23</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="12">
         <v>24</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="12">
         <v>25</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="12">
         <v>26</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="12">
         <v>27</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AC2" s="12">
         <v>28</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="12">
         <v>29</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="12">
         <v>30</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AF2" s="12">
         <v>31</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="12">
         <v>32</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AH2" s="12">
         <v>33</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AI2" s="12">
         <v>34</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AJ2" s="12">
         <v>35</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="12">
         <v>36</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AL2" s="12">
         <v>37</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="12">
         <v>38</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="12">
         <v>39</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="12">
         <v>40</v>
       </c>
-      <c r="AP2" s="16">
+      <c r="AP2" s="12">
         <v>41</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AQ2" s="12">
         <v>42</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AR2" s="12">
         <v>43</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AS2" s="12">
         <v>44</v>
       </c>
-      <c r="AT2" s="16">
+      <c r="AT2" s="12">
         <v>45</v>
       </c>
-      <c r="AU2" s="16">
+      <c r="AU2" s="12">
         <v>46</v>
       </c>
-      <c r="AV2" s="16">
+      <c r="AV2" s="12">
         <v>47</v>
       </c>
-      <c r="AW2" s="16">
+      <c r="AW2" s="12">
         <v>48</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AX2" s="12">
         <v>49</v>
       </c>
-      <c r="AY2" s="16">
+      <c r="AY2" s="12">
         <v>50</v>
       </c>
-      <c r="AZ2" s="16">
+      <c r="AZ2" s="12">
         <v>51</v>
       </c>
-      <c r="BA2" s="17">
+      <c r="BA2" s="13">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
         <v>110000</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="15">
         <v>245000</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <v>245000</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="15">
         <v>245000</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="15">
         <v>245000</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="15">
         <v>245000</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="15">
         <v>245000</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="15">
         <v>245000</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="15">
         <v>80000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="16"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15">
         <v>75000</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="15">
         <v>245000</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="15">
         <v>245000</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="15">
         <v>245000</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="15">
         <v>245000</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="15">
         <v>245000</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="15">
         <v>245000</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="15">
         <v>245000</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="15">
         <v>245000</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="15">
         <v>245000</v>
       </c>
-      <c r="BA4" s="20">
+      <c r="BA4" s="16">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15">
         <v>194000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="15">
         <v>294000</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="15">
         <v>294000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="15">
         <v>294000</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="15">
         <v>294000</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="15">
         <v>294000</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="15">
         <v>294000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="15">
         <v>294000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="15">
         <v>294000</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="15">
         <v>294000</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="15">
         <v>50000</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="20"/>
-    </row>
-    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="16"/>
+    </row>
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17">
         <v>233000</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="17">
         <v>320000</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="17">
         <v>320000</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="17">
         <v>320000</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="17">
         <v>320000</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="17">
         <v>320000</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="17">
         <v>320000</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="17">
         <v>320000</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="17">
         <v>320000</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="17">
         <v>320000</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="17">
         <v>195000</v>
       </c>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="22"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="18"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3988,7 +4016,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4007,10 +4035,10 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4026,7 +4054,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4038,14 +4066,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4064,7 +4092,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4083,7 +4111,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4102,7 +4130,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -4121,7 +4149,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4151,180 +4179,182 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="45">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="12">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="12">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="12">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="12">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="12">
         <v>11</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="12">
         <v>12</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="12">
         <v>13</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="12">
         <v>14</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="12">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="12">
         <v>16</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="12">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="12">
         <v>18</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="12">
         <v>19</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="12">
         <v>20</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="12">
         <v>21</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="12">
         <v>22</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="12">
         <v>23</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="12">
         <v>24</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="12">
         <v>25</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="12">
         <v>26</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="12">
         <v>27</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="12">
         <v>28</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="12">
         <v>29</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="12">
         <v>30</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="12">
         <v>31</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="12">
         <v>32</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="12">
         <v>33</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="12">
         <v>34</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="12">
         <v>35</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="12">
         <v>36</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="12">
         <v>37</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="12">
         <v>38</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="12">
         <v>39</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AO2" s="12">
         <v>40</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="12">
         <v>41</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="12">
         <v>42</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="12">
         <v>43</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="12">
         <v>44</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="12">
         <v>45</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="12">
         <v>46</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="12">
         <v>47</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="12">
         <v>48</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="12">
         <v>49</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AY2" s="12">
         <v>50</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="AZ2" s="12">
         <v>51</v>
       </c>
-      <c r="BA2" s="9">
+      <c r="BA2" s="13">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
@@ -4396,8 +4426,8 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3"/>
@@ -4453,8 +4483,8 @@
       <c r="AZ4" s="3"/>
       <c r="BA4" s="4"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3"/>
@@ -4516,8 +4546,8 @@
       <c r="AZ5" s="3"/>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5"/>
@@ -4579,7 +4609,7 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="6"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4600,7 +4630,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4621,10 +4651,10 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -4642,7 +4672,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4654,16 +4684,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4684,7 +4714,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4705,7 +4735,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4726,7 +4756,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4747,7 +4777,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4768,7 +4798,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4789,7 +4819,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4810,7 +4840,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4831,7 +4861,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4852,7 +4882,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4881,366 +4911,1169 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BA92-5244-487C-A2DC-E363C6C267C1}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.26171875" style="18"/>
-    <col min="3" max="16384" width="9.26171875" style="1"/>
+    <col min="1" max="2" width="9.21875" style="14"/>
+    <col min="3" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="16">
+    <row r="2" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40" t="s">
+      <c r="H2" s="12">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12">
+        <v>11</v>
+      </c>
+      <c r="N2" s="12">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12">
+        <v>13</v>
+      </c>
+      <c r="P2" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>15</v>
+      </c>
+      <c r="R2" s="12">
+        <v>16</v>
+      </c>
+      <c r="S2" s="12">
+        <v>17</v>
+      </c>
+      <c r="T2" s="12">
+        <v>18</v>
+      </c>
+      <c r="U2" s="12">
+        <v>19</v>
+      </c>
+      <c r="V2" s="12">
+        <v>20</v>
+      </c>
+      <c r="W2" s="12">
+        <v>21</v>
+      </c>
+      <c r="X2" s="12">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="12">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="12">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="12">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="38">
         <v>1058</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="38">
         <v>1029</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="38">
         <v>999</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="38">
         <v>998</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="38">
         <v>996</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="16"/>
+    </row>
+    <row r="4" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="38">
         <v>1058</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="38">
         <v>1029</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="38">
         <v>999</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="38">
         <v>998</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="38">
         <v>996</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="43" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="16"/>
+    </row>
+    <row r="5" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="38">
         <v>466</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="38">
         <v>460</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="38">
         <v>458</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="38">
         <v>457</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="38">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="43" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="16"/>
+    </row>
+    <row r="6" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="38">
         <v>466</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="38">
         <v>460</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="38">
         <v>458</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="38">
         <v>457</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="38">
         <v>455</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="43" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="16"/>
+    </row>
+    <row r="7" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="38">
         <v>466</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="38">
         <v>460</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="38">
         <v>458</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="38">
         <v>457</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="38">
         <v>455</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="16"/>
+    </row>
+    <row r="8" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="38">
         <v>200</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="38">
         <v>199</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="38">
         <v>198</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <v>196</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="38">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="43" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="16"/>
+    </row>
+    <row r="9" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="38">
         <v>200</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <v>199</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="38">
         <v>198</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="38">
         <v>196</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="38">
         <v>195</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="16"/>
+    </row>
+    <row r="10" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="38">
         <v>200</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <v>199</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="38">
         <v>198</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="38">
         <v>196</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="38">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="43" t="s">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="16"/>
+    </row>
+    <row r="11" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="38">
         <v>200</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="38">
         <v>199</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="38">
         <v>198</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="38">
         <v>196</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="38">
         <v>195</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="43" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="16"/>
+    </row>
+    <row r="12" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="38">
         <v>331</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <v>330</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <v>330</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="38">
         <v>329</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="38">
         <v>329</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="43" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="16"/>
+    </row>
+    <row r="13" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="38">
         <v>331</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="38">
         <v>330</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="38">
         <v>330</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="38">
         <v>329</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="38">
         <v>329</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="43" t="s">
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="16"/>
+    </row>
+    <row r="14" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="38">
         <v>331</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="38">
         <v>330</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="38">
         <v>330</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="38">
         <v>329</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="38">
         <v>329</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="43" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="16"/>
+    </row>
+    <row r="15" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="38">
         <v>895</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <v>888</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="38">
         <v>887</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="38">
         <v>885</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="38">
         <v>883</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="45" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="16"/>
+    </row>
+    <row r="16" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>895</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>888</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>887</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="17">
         <v>885</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="17">
         <v>883</v>
       </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="47"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="18"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
